--- a/Компьютерное моделирование/Компьютерное моделирование lab5.xlsx
+++ b/Компьютерное моделирование/Компьютерное моделирование lab5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Computer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Компьютерное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B3173-75C4-4E44-940B-A2C6BCFD6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB93286-CADB-4133-A8F6-417D4FC6B35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,19 +482,23 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
